--- a/biology/Botanique/Torilis/Torilis.xlsx
+++ b/biology/Botanique/Torilis/Torilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torilis Écouter est un genre de plantes à fleurs herbacées annuelles ou vivaces de la famille des Apiaceae. Il comprend une vingtaine d'espèces originaires d'Eurasie.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est nommé par Michel Adanson en 1763[1],[2]. Son étymologie est inconnue[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est nommé par Michel Adanson en 1763,. Son étymologie est inconnue.
 </t>
         </is>
       </c>
@@ -544,13 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des herbes annuelles ou parfois vivaces, poilues, hispides ou pubères. La tige est érigée, très ramifiée, striée, feuillue de partout. Le limbe foliaire est de un à deux pennes ou pignon décomposé ; les segments ultimes sont lancéolés à oblongs, densément dentés à profondément lobés, les deux surfaces sont striées de poils apprêtés[4]. 
-Appareil reproducteur
-Les ombelles sont peu composées ou capitulées, terminales et/ou latérales ; les bractées sont peu nombreuses ou absentes ; il y a 2 à 12 rayons, s'étendant vers le haut, ou ombellules sessiles. Les bractéoles sont par deux ou huit, linéaires ou subulées. Les dents du calice sont petites, triangulaires à aiguës-lancéolées. Les pétales sont blancs ou rouge violacé, obovales, avec un apex étroit et infléchi, apprêtés-strigueux sur la surface abaxiale. Le stylopodium est épais, conique ; les styles courts[4]. 
-Le fruit est rond-ovoïde ou oblong, aplati latéralement ; les côtes primaires filiformes, séticulées, les côtes latérales déplacées sur la surface commissurale ; les côtes secondaires cachées par des aiguillons denses, crochus vers le haut qui occupent tout l'intervalle. La graine est aplatie dorsalement en coupe transversale, la face concave. Le carpophore est bifide à l'apex, fendu sur 1/3 à 1/2 de sa longueur[4].
-Confusions possibles
-Le Torilis des champs est souvent confondu avec la Carotte sauvage avec qui il est souvent associé (plantes de milieu sec, à fort ensoleillement). Le Torilis est une plante à poils apprimés rêches (longs poils visibles chez la carotte) d'où sa tige scabre, mais sans poils sur la gaine foliaire (observables à la loupe de poche chez la carotte)[5].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbes annuelles ou parfois vivaces, poilues, hispides ou pubères. La tige est érigée, très ramifiée, striée, feuillue de partout. Le limbe foliaire est de un à deux pennes ou pignon décomposé ; les segments ultimes sont lancéolés à oblongs, densément dentés à profondément lobés, les deux surfaces sont striées de poils apprêtés. 
 </t>
         </is>
       </c>
@@ -576,12 +590,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ombelles sont peu composées ou capitulées, terminales et/ou latérales ; les bractées sont peu nombreuses ou absentes ; il y a 2 à 12 rayons, s'étendant vers le haut, ou ombellules sessiles. Les bractéoles sont par deux ou huit, linéaires ou subulées. Les dents du calice sont petites, triangulaires à aiguës-lancéolées. Les pétales sont blancs ou rouge violacé, obovales, avec un apex étroit et infléchi, apprêtés-strigueux sur la surface abaxiale. Le stylopodium est épais, conique ; les styles courts. 
+Le fruit est rond-ovoïde ou oblong, aplati latéralement ; les côtes primaires filiformes, séticulées, les côtes latérales déplacées sur la surface commissurale ; les côtes secondaires cachées par des aiguillons denses, crochus vers le haut qui occupent tout l'intervalle. La graine est aplatie dorsalement en coupe transversale, la face concave. Le carpophore est bifide à l'apex, fendu sur 1/3 à 1/2 de sa longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Torilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Torilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Torilis des champs est souvent confondu avec la Carotte sauvage avec qui il est souvent associé (plantes de milieu sec, à fort ensoleillement). Le Torilis est une plante à poils apprimés rêches (longs poils visibles chez la carotte) d'où sa tige scabre, mais sans poils sur la gaine foliaire (observables à la loupe de poche chez la carotte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Torilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Torilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 janvier 2020)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 janvier 2020) :
 Torilis africana Spreng.
 Torilis arvensis (Huds.) Link
 Torilis arvensis subsp. arvensis
@@ -608,64 +699,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Torilis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Torilis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces sont réparties sur une bonne partie de l'Eurasie[2],[6] (exceptés la Sibérie, la Mongolie, l'Inde, l'Afrique de l'Ouest et centrale). Certaines ont été introduites aux Amériques[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces sont réparties sur une bonne partie de l'Eurasie, (exceptés la Sibérie, la Mongolie, l'Inde, l'Afrique de l'Ouest et centrale). Certaines ont été introduites aux Amériques.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Torilis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Torilis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles de Torilis arvensis et Torilis leptophylla sont comestibles. Celles du Torilis du Japon, ainsi que ses racines, sont consommées en Asie orientale, où la plante est indigène[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles de Torilis arvensis et Torilis leptophylla sont comestibles. Celles du Torilis du Japon, ainsi que ses racines, sont consommées en Asie orientale, où la plante est indigène.
 </t>
         </is>
       </c>
